--- a/resources/experiment 1/metrics/R2/average time/Neuropatía.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Neuropatía.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9971123203959964</v>
+        <v>0.9968250993858209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9971123203959964</v>
+        <v>0.9971944218932864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9971123203959964</v>
+        <v>0.9963780486824455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.997804684616145</v>
+        <v>0.9973888076978041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.997804684616145</v>
+        <v>0.9977317195496425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.997804684616145</v>
+        <v>0.9977024659976855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9856672357911643</v>
+        <v>0.9977488042316179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9856672357911643</v>
+        <v>0.9979096137536088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9856672357911643</v>
+        <v>0.9979200096138564</v>
       </c>
     </row>
   </sheetData>
